--- a/insumos/produccion_1999-2019_t1_cuencas.xlsx
+++ b/insumos/produccion_1999-2019_t1_cuencas.xlsx
@@ -68,7 +68,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -173,7 +173,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
